--- a/Chain.of.Heroes/Tools/data/SpeechBubble.xlsx
+++ b/Chain.of.Heroes/Tools/data/SpeechBubble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAFE9CD-C6D4-4FBB-A009-393372BE5D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC32025D-C102-4192-A7AD-27236584900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Chat/Chat_Knight_Type03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>에델린 숲에는 고요한 기운이 느껴졌다.
 나뭇잎 사이로 새는 햇빛이 숲속을 환하게 밝혀주었다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -607,6 +603,10 @@
   </si>
   <si>
     <t>덕분에 크게 다치지 않았어.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat/Chat_Knight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1346,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1421,7 +1421,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1450,7 +1450,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1459,10 +1459,10 @@
         <v>0.1</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1517,10 +1517,10 @@
         <v>0.1</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1528,28 +1528,28 @@
         <v>10001006</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1557,28 +1557,28 @@
         <v>10001007</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="I12" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1586,16 +1586,16 @@
         <v>10001008</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="30">
         <v>1</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>32</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1615,17 +1615,17 @@
         <v>10001009</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
       <c r="D14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
@@ -1633,10 +1633,10 @@
         <v>0.1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1644,16 +1644,16 @@
         <v>10001010</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1662,10 +1662,10 @@
         <v>0.1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1673,16 +1673,16 @@
         <v>10001011</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12">
         <v>2</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="14">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1702,16 +1702,16 @@
         <v>10001012</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="17">
         <v>2</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1720,10 +1720,10 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1731,16 +1731,16 @@
         <v>10001013</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="17">
         <v>2</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1760,16 +1760,16 @@
         <v>10001014</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="22">
         <v>2</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="24">
         <v>1</v>
@@ -1778,10 +1778,10 @@
         <v>0.1</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1789,17 +1789,17 @@
         <v>10001015</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="30">
         <v>3</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
@@ -1807,10 +1807,10 @@
         <v>0.1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1818,16 +1818,16 @@
         <v>10001016</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="30">
         <v>3</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1839,7 +1839,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1847,16 +1847,16 @@
         <v>10001017</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="30">
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         <v>0.1</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1876,16 +1876,16 @@
         <v>10001018</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="34">
         <v>3</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="24">
         <v>1</v>
@@ -1894,10 +1894,10 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1905,28 +1905,28 @@
         <v>10001019</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="17">
         <v>4</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="I24" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1934,28 +1934,28 @@
         <v>10001020</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="I25" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1963,16 +1963,16 @@
         <v>10001021</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="17">
         <v>4</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -1984,7 +1984,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1992,16 +1992,16 @@
         <v>10001022</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="17">
         <v>4</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -2010,10 +2010,10 @@
         <v>0.1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2021,17 +2021,17 @@
         <v>10001023</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="17">
         <v>4</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>63</v>
-      </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
@@ -2039,10 +2039,10 @@
         <v>0.1</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2050,16 +2050,16 @@
         <v>10001024</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="22">
         <v>4</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="24">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>28</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2079,16 +2079,16 @@
         <v>10001025</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="27">
         <v>5</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2108,17 +2108,17 @@
         <v>10001026</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="30">
         <v>5</v>
       </c>
       <c r="D31" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
@@ -2126,10 +2126,10 @@
         <v>0.1</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2137,16 +2137,16 @@
         <v>10001027</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="34">
         <v>5</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="24">
         <v>1</v>
@@ -2155,10 +2155,10 @@
         <v>0.1</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2166,16 +2166,16 @@
         <v>10001028</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="12">
         <v>6</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="14">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2195,16 +2195,16 @@
         <v>10001029</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C34" s="17">
         <v>6</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>0.1</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2224,7 +2224,7 @@
         <v>10001030</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="17">
         <v>6</v>
@@ -2233,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
@@ -2242,10 +2242,10 @@
         <v>0.1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2253,16 +2253,16 @@
         <v>10001031</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="17">
         <v>6</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -2274,7 +2274,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2282,16 +2282,16 @@
         <v>10001032</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="17">
         <v>6</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>0.1</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2311,7 +2311,7 @@
         <v>10001033</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="22">
         <v>6</v>
@@ -2320,7 +2320,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="24">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         <v>0.1</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2340,16 +2340,16 @@
         <v>10001034</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="27">
         <v>7</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="14">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>28</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2369,16 +2369,16 @@
         <v>10001035</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="30">
         <v>7</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
@@ -2387,10 +2387,10 @@
         <v>0.1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2398,16 +2398,16 @@
         <v>10001036</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="30">
         <v>7</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -2416,10 +2416,10 @@
         <v>0.1</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2427,16 +2427,16 @@
         <v>10001037</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="30">
         <v>7</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2456,16 +2456,16 @@
         <v>10001038</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="34">
         <v>7</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" s="24">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>28</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2485,16 +2485,16 @@
         <v>10001039</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="12">
         <v>8</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="14">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>28</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2514,16 +2514,16 @@
         <v>10001040</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="17">
         <v>8</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2532,10 +2532,10 @@
         <v>0.1</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2543,16 +2543,16 @@
         <v>10001041</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="17">
         <v>8</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" s="5">
         <v>1</v>
@@ -2561,10 +2561,10 @@
         <v>0.1</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2572,7 +2572,7 @@
         <v>10001042</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="17">
         <v>8</v>
@@ -2581,7 +2581,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
@@ -2590,10 +2590,10 @@
         <v>0.1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2601,7 +2601,7 @@
         <v>10001043</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="17">
         <v>8</v>
@@ -2610,7 +2610,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="5">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>28</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2630,16 +2630,16 @@
         <v>10001044</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="17">
         <v>8</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2648,10 +2648,10 @@
         <v>0.1</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2659,16 +2659,16 @@
         <v>10001045</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" s="22">
         <v>8</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F50" s="24">
         <v>1</v>
@@ -2680,7 +2680,7 @@
         <v>28</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2688,16 +2688,16 @@
         <v>10001046</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="27">
         <v>9</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" s="14">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>28</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2717,28 +2717,28 @@
         <v>10001047</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="30">
         <v>9</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E52" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="I52" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2746,16 +2746,16 @@
         <v>10001048</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="30">
         <v>9</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
@@ -2764,10 +2764,10 @@
         <v>0.1</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2775,16 +2775,16 @@
         <v>10001049</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="30">
         <v>9</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="5">
         <v>1</v>
@@ -2796,7 +2796,7 @@
         <v>28</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
         <v>10001050</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="30">
         <v>9</v>
@@ -2813,7 +2813,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
@@ -2822,10 +2822,10 @@
         <v>0.1</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
         <v>10001051</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="34">
         <v>9</v>
@@ -2842,7 +2842,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="24">
         <v>1</v>
@@ -2851,10 +2851,10 @@
         <v>0.1</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Chain.of.Heroes/Tools/data/SpeechBubble.xlsx
+++ b/Chain.of.Heroes/Tools/data/SpeechBubble.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC32025D-C102-4192-A7AD-27236584900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556F6BE-C262-4C16-856D-E3F3E6D843C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpeechBubble" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="154">
   <si>
     <t>Int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -607,6 +607,36 @@
   </si>
   <si>
     <t>Chat/Chat_Knight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#말풍선_41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가자, 크리스.
+저녀석이 이 모든 일의 원흉이야.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리라면 저 녀석을 봉인 할 수 있을거야.
+모두가 열어 준 길을 헛되이 하지 않겠어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#말풍선_42</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#말풍선_43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#말풍선_44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat/Chat_Knight_Type03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -951,6 +981,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1233,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
@@ -1374,8 +1410,8 @@
       <c r="H5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>120</v>
+      <c r="I5" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,8 +1421,8 @@
       <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
+      <c r="C6" s="38">
+        <v>-1</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>18</v>
@@ -1404,7 +1440,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1414,8 +1450,8 @@
       <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
+      <c r="C7" s="38">
+        <v>-1</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>18</v>
@@ -1433,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1443,8 +1479,8 @@
       <c r="B8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17">
-        <v>0</v>
+      <c r="C8" s="38">
+        <v>-1</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>19</v>
@@ -1462,7 +1498,7 @@
         <v>117</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,8 +1508,8 @@
       <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="17">
-        <v>0</v>
+      <c r="C9" s="38">
+        <v>-1</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>18</v>
@@ -1491,7 +1527,7 @@
         <v>28</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1502,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>20</v>
@@ -1520,7 +1556,7 @@
         <v>146</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1530,8 +1566,8 @@
       <c r="B11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="27">
-        <v>1</v>
+      <c r="C11" s="39">
+        <v>0</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>116</v>
@@ -1549,7 +1585,7 @@
         <v>117</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1559,8 +1595,8 @@
       <c r="B12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="30">
-        <v>1</v>
+      <c r="C12" s="39">
+        <v>0</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>116</v>
@@ -1578,7 +1614,7 @@
         <v>117</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.3">
@@ -1588,8 +1624,8 @@
       <c r="B13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="30">
-        <v>1</v>
+      <c r="C13" s="39">
+        <v>0</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>30</v>
@@ -1607,7 +1643,7 @@
         <v>28</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1617,8 +1653,8 @@
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="30">
-        <v>1</v>
+      <c r="C14" s="39">
+        <v>0</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>32</v>
@@ -1636,7 +1672,7 @@
         <v>146</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1646,8 +1682,8 @@
       <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30">
-        <v>1</v>
+      <c r="C15" s="34">
+        <v>0</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>32</v>
@@ -1664,8 +1700,8 @@
       <c r="H15" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>121</v>
+      <c r="I15" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1675,8 +1711,8 @@
       <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12">
-        <v>2</v>
+      <c r="C16" s="38">
+        <v>1</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>30</v>
@@ -1693,8 +1729,8 @@
       <c r="H16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>126</v>
+      <c r="I16" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1704,8 +1740,8 @@
       <c r="B17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="17">
-        <v>2</v>
+      <c r="C17" s="38">
+        <v>1</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>32</v>
@@ -1723,7 +1759,7 @@
         <v>146</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1733,8 +1769,8 @@
       <c r="B18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17">
-        <v>2</v>
+      <c r="C18" s="38">
+        <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>40</v>
@@ -1752,7 +1788,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1763,7 +1799,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>32</v>
@@ -1781,7 +1817,7 @@
         <v>146</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1791,8 +1827,8 @@
       <c r="B20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="30">
-        <v>3</v>
+      <c r="C20" s="39">
+        <v>2</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>47</v>
@@ -1810,7 +1846,7 @@
         <v>117</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1820,8 +1856,8 @@
       <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="30">
-        <v>3</v>
+      <c r="C21" s="39">
+        <v>2</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>30</v>
@@ -1839,7 +1875,7 @@
         <v>28</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1849,8 +1885,8 @@
       <c r="B22" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="30">
-        <v>3</v>
+      <c r="C22" s="39">
+        <v>2</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>32</v>
@@ -1868,7 +1904,7 @@
         <v>146</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1879,7 +1915,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>32</v>
@@ -1897,7 +1933,7 @@
         <v>146</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1907,8 +1943,8 @@
       <c r="B24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="17">
-        <v>4</v>
+      <c r="C24" s="38">
+        <v>3</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>116</v>
@@ -1926,7 +1962,7 @@
         <v>117</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1936,8 +1972,8 @@
       <c r="B25" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="17">
-        <v>4</v>
+      <c r="C25" s="38">
+        <v>3</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>116</v>
@@ -1955,7 +1991,7 @@
         <v>117</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1965,8 +2001,8 @@
       <c r="B26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="17">
-        <v>4</v>
+      <c r="C26" s="38">
+        <v>3</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>30</v>
@@ -1984,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1994,8 +2030,8 @@
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="17">
-        <v>4</v>
+      <c r="C27" s="38">
+        <v>3</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>32</v>
@@ -2013,7 +2049,7 @@
         <v>146</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2023,8 +2059,8 @@
       <c r="B28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="17">
-        <v>4</v>
+      <c r="C28" s="38">
+        <v>3</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>61</v>
@@ -2042,7 +2078,7 @@
         <v>117</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2053,7 +2089,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>30</v>
@@ -2070,8 +2106,8 @@
       <c r="H29" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>124</v>
+      <c r="I29" s="25" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2081,8 +2117,8 @@
       <c r="B30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="27">
-        <v>5</v>
+      <c r="C30" s="39">
+        <v>4</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>30</v>
@@ -2099,8 +2135,8 @@
       <c r="H30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>129</v>
+      <c r="I30" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2110,8 +2146,8 @@
       <c r="B31" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="30">
-        <v>5</v>
+      <c r="C31" s="39">
+        <v>4</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>70</v>
@@ -2129,7 +2165,7 @@
         <v>146</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2140,7 +2176,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>61</v>
@@ -2157,8 +2193,8 @@
       <c r="H32" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>129</v>
+      <c r="I32" s="25" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2168,8 +2204,8 @@
       <c r="B33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="12">
-        <v>6</v>
+      <c r="C33" s="38">
+        <v>5</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>76</v>
@@ -2186,8 +2222,8 @@
       <c r="H33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="15" t="s">
-        <v>131</v>
+      <c r="I33" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2197,8 +2233,8 @@
       <c r="B34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="17">
-        <v>6</v>
+      <c r="C34" s="38">
+        <v>5</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>61</v>
@@ -2216,7 +2252,7 @@
         <v>117</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2226,8 +2262,8 @@
       <c r="B35" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="17">
-        <v>6</v>
+      <c r="C35" s="38">
+        <v>5</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>20</v>
@@ -2245,7 +2281,7 @@
         <v>146</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2255,8 +2291,8 @@
       <c r="B36" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="17">
-        <v>6</v>
+      <c r="C36" s="38">
+        <v>5</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>76</v>
@@ -2274,7 +2310,7 @@
         <v>28</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2284,8 +2320,8 @@
       <c r="B37" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="17">
-        <v>6</v>
+      <c r="C37" s="38">
+        <v>5</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>84</v>
@@ -2303,7 +2339,7 @@
         <v>117</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2314,7 +2350,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>20</v>
@@ -2331,8 +2367,8 @@
       <c r="H38" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I38" s="25" t="s">
-        <v>130</v>
+      <c r="I38" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2342,8 +2378,8 @@
       <c r="B39" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="27">
-        <v>7</v>
+      <c r="C39" s="39">
+        <v>6</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>76</v>
@@ -2360,8 +2396,8 @@
       <c r="H39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>133</v>
+      <c r="I39" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2371,8 +2407,8 @@
       <c r="B40" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="30">
-        <v>7</v>
+      <c r="C40" s="39">
+        <v>6</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>70</v>
@@ -2390,7 +2426,7 @@
         <v>146</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2400,8 +2436,8 @@
       <c r="B41" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="30">
-        <v>7</v>
+      <c r="C41" s="39">
+        <v>6</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>70</v>
@@ -2419,7 +2455,7 @@
         <v>146</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2429,8 +2465,8 @@
       <c r="B42" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="30">
-        <v>7</v>
+      <c r="C42" s="39">
+        <v>6</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>76</v>
@@ -2448,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2459,7 +2495,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>76</v>
@@ -2476,8 +2512,8 @@
       <c r="H43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="19" t="s">
-        <v>132</v>
+      <c r="I43" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2487,8 +2523,8 @@
       <c r="B44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="12">
-        <v>8</v>
+      <c r="C44" s="38">
+        <v>7</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>76</v>
@@ -2505,8 +2541,8 @@
       <c r="H44" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>134</v>
+      <c r="I44" s="19" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2516,8 +2552,8 @@
       <c r="B45" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="17">
-        <v>8</v>
+      <c r="C45" s="38">
+        <v>7</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>70</v>
@@ -2535,7 +2571,7 @@
         <v>146</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2545,8 +2581,8 @@
       <c r="B46" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="17">
-        <v>8</v>
+      <c r="C46" s="38">
+        <v>7</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>70</v>
@@ -2564,7 +2600,7 @@
         <v>146</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2574,8 +2610,8 @@
       <c r="B47" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="17">
-        <v>8</v>
+      <c r="C47" s="38">
+        <v>7</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>20</v>
@@ -2593,7 +2629,7 @@
         <v>146</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2603,8 +2639,8 @@
       <c r="B48" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="17">
-        <v>8</v>
+      <c r="C48" s="38">
+        <v>7</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>18</v>
@@ -2622,7 +2658,7 @@
         <v>28</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2632,8 +2668,8 @@
       <c r="B49" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="17">
-        <v>8</v>
+      <c r="C49" s="38">
+        <v>7</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>70</v>
@@ -2651,7 +2687,7 @@
         <v>146</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2662,7 +2698,7 @@
         <v>108</v>
       </c>
       <c r="C50" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>76</v>
@@ -2679,7 +2715,7 @@
       <c r="H50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="25" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2690,8 +2726,8 @@
       <c r="B51" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="27">
-        <v>9</v>
+      <c r="C51" s="39">
+        <v>8</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>76</v>
@@ -2709,7 +2745,7 @@
         <v>28</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2719,8 +2755,8 @@
       <c r="B52" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="30">
-        <v>9</v>
+      <c r="C52" s="39">
+        <v>8</v>
       </c>
       <c r="D52" s="30" t="s">
         <v>70</v>
@@ -2738,7 +2774,7 @@
         <v>146</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2748,8 +2784,8 @@
       <c r="B53" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="30">
-        <v>9</v>
+      <c r="C53" s="39">
+        <v>8</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>70</v>
@@ -2767,7 +2803,7 @@
         <v>146</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2777,8 +2813,8 @@
       <c r="B54" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="30">
-        <v>9</v>
+      <c r="C54" s="39">
+        <v>8</v>
       </c>
       <c r="D54" s="30" t="s">
         <v>76</v>
@@ -2796,7 +2832,7 @@
         <v>28</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2806,8 +2842,8 @@
       <c r="B55" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="30">
-        <v>9</v>
+      <c r="C55" s="39">
+        <v>8</v>
       </c>
       <c r="D55" s="30" t="s">
         <v>20</v>
@@ -2825,7 +2861,7 @@
         <v>146</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2836,12 +2872,12 @@
         <v>115</v>
       </c>
       <c r="C56" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="32" t="s">
         <v>141</v>
       </c>
       <c r="F56" s="24">
@@ -2853,7 +2889,152 @@
       <c r="H56" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I56" s="25" t="s">
+      <c r="I56" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>10001052</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="38">
+        <v>9</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>10001053</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="38">
+        <v>9</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>10001054</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="38">
+        <v>9</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>10001055</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="38">
+        <v>9</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <v>10001056</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="22">
+        <v>9</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="24">
+        <v>1</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>135</v>
       </c>
     </row>

--- a/Chain.of.Heroes/Tools/data/SpeechBubble.xlsx
+++ b/Chain.of.Heroes/Tools/data/SpeechBubble.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C84B801-0576-4263-A468-5BAA06BB43DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A864B8-7ED7-44FB-B751-06D1181E2FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
   <si>
     <t>Int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -633,10 +633,6 @@
   </si>
   <si>
     <t>#말풍선_44</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat/Chat_Knight_Type03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1265,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3026,7 +3022,7 @@
         <v>0.1</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I61" s="25" t="s">
         <v>135</v>
